--- a/10-razpredelnice/tockovanje.xlsx
+++ b/10-razpredelnice/tockovanje.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katja/Versioned/Predmeti/racunalniski-praktikum/vaje/03-excel/vaje2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tianj\Documents\FMF\rp\racunalniski-praktikum\10-razpredelnice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4BC39C-E016-7A44-8583-BE6404D1B41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961DAC35-9729-49EF-A374-5734AD1C26F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3180" yWindow="-26460" windowWidth="34160" windowHeight="23680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Točkovanje" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="72">
   <si>
     <t>+</t>
   </si>
@@ -794,21 +794,19 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1156,65 +1154,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6:W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="4.6640625" style="2" customWidth="1"/>
-    <col min="5" max="18" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="18" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="46" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="P2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" ht="45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:23" ht="42" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1222,61 +1220,61 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="P3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -1313,20 +1311,20 @@
       <c r="Q5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="W5" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -1360,8 +1358,21 @@
       <c r="R6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6">
+        <v>94</v>
+      </c>
+      <c r="W6" s="9" t="str">
+        <f>IF(V6&gt;=90,"10",IF(V6&gt;=80,"9",IF(V6&gt;=70,"8",IF(V6&gt;=60,"7",IF(V6&gt;=50,"6","")))))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1398,8 +1409,21 @@
       <c r="R7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7">
+        <v>92</v>
+      </c>
+      <c r="W7" s="9" t="str">
+        <f t="shared" ref="W7:W19" si="0">IF(V7&gt;=90,"10",IF(V7&gt;=80,"9",IF(V7&gt;=70,"8",IF(V7&gt;=60,"7",IF(V7&gt;=50,"6","")))))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1430,8 +1454,21 @@
       <c r="R8" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T8" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V8">
+        <v>87</v>
+      </c>
+      <c r="W8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -1474,8 +1511,21 @@
       <c r="R9" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9">
+        <v>84</v>
+      </c>
+      <c r="W9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1515,8 +1565,21 @@
       <c r="R10" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T10" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10">
+        <v>83</v>
+      </c>
+      <c r="W10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -1550,8 +1613,21 @@
       <c r="R11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11">
+        <v>78</v>
+      </c>
+      <c r="W11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1588,8 +1664,21 @@
       <c r="R12" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12">
+        <v>70</v>
+      </c>
+      <c r="W12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1712,119 @@
       <c r="R13" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>65</v>
+      </c>
+      <c r="V13">
+        <v>69</v>
+      </c>
+      <c r="W13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <f>SUM(C5:C13)</f>
+        <v>28</v>
+      </c>
+      <c r="D14" s="5">
+        <f>SUM(D5:D13)</f>
+        <v>14</v>
+      </c>
+      <c r="E14" s="5">
+        <f>SUMIF(E5:E13,"+",$C$5:$C$13)+SUMIF(E5:E13,"o",$D$5:$D$13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <f>SUMIF(F5:F13,"+",$C$5:$C$13)+SUMIF(F5:F13,"o",$D$5:$D$13)</f>
+        <v>12</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" ref="G14:R14" si="1">SUMIF(G5:G13,"+",$C$5:$C$13)+SUMIF(G5:G13,"o",$D$5:$D$13)</f>
+        <v>23</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="T14" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14">
+        <v>61</v>
+      </c>
+      <c r="W14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T15" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15">
+        <v>55</v>
+      </c>
+      <c r="W15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1697,8 +1873,21 @@
       <c r="R16" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" t="s">
+        <v>13</v>
+      </c>
+      <c r="V16">
+        <v>54</v>
+      </c>
+      <c r="W16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1744,8 +1933,21 @@
       <c r="R17" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T17" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17" t="s">
+        <v>66</v>
+      </c>
+      <c r="V17">
+        <v>54</v>
+      </c>
+      <c r="W17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1996,21 @@
       <c r="R18" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T18" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18">
+        <v>42</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -1847,8 +2062,21 @@
       <c r="R19" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19">
+        <v>38</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -1898,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>35</v>
       </c>
@@ -1945,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -1989,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>37</v>
       </c>
@@ -2036,31 +2264,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C24" s="5">
+        <f>SUM(C16:C23)</f>
+        <v>28</v>
+      </c>
+      <c r="D24" s="5">
+        <f>SUM(D16:D23)</f>
+        <v>14</v>
+      </c>
+      <c r="E24" s="5">
+        <f>SUMIF(E16:E23,"+",$C$16:$C$23)+SUMIF(E16:E23,"o",$D$16:$D$23)</f>
+        <v>24</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:R24" si="2">SUMIF(F16:F23,"+",$C$16:$C$23)+SUMIF(F16:F23,"o",$D$16:$D$23)</f>
+        <v>27</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>39</v>
       </c>
@@ -2113,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>40</v>
       </c>
@@ -2166,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -2219,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>42</v>
       </c>
@@ -2269,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>43</v>
       </c>
@@ -2316,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>44</v>
       </c>
@@ -2339,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>45</v>
       </c>
@@ -2380,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>46</v>
       </c>
@@ -2424,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>47</v>
       </c>
@@ -2474,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>48</v>
       </c>
@@ -2524,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>49</v>
       </c>
@@ -2568,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>50</v>
       </c>
@@ -2603,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>51</v>
       </c>
@@ -2647,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>52</v>
       </c>
@@ -2697,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>53</v>
       </c>
@@ -2747,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>54</v>
       </c>
@@ -2782,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>55</v>
       </c>
@@ -2826,46 +3102,145 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C43" s="5">
+        <f>SUM(C26:C42)</f>
+        <v>44</v>
+      </c>
+      <c r="D43" s="5">
+        <f>SUM(D26:D42)</f>
+        <v>22</v>
+      </c>
+      <c r="E43" s="5">
+        <f>SUMIF(E26:E42,"+",$C$26:$C$42)+SUMIF(E26:E42,"o",$D$26:$D$42)</f>
+        <v>31</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" ref="F43:R43" si="3">SUMIF(F26:F42,"+",$C$26:$C$42)+SUMIF(F26:F42,"o",$D$26:$D$42)</f>
+        <v>31</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="M43" s="5">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="R43" s="5">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
+      <c r="C45" s="7">
+        <f>SUM(C14,C24,C43)</f>
+        <v>100</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" ref="D45:R45" si="4">SUM(D14,D24,D43)</f>
+        <v>50</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="K45" s="7">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="L45" s="7">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="M45" s="7">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="N45" s="7">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="O45" s="7">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="P45" s="7">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="Q45" s="7">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="R45" s="7">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T6:V19">
+    <sortCondition descending="1" ref="V6:V19"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="T4:W4"/>
   </mergeCells>

--- a/10-razpredelnice/tockovanje.xlsx
+++ b/10-razpredelnice/tockovanje.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tianj\Documents\FMF\rp\racunalniski-praktikum\10-razpredelnice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961DAC35-9729-49EF-A374-5734AD1C26F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804F6365-BC1A-4B3D-9F29-FCDB062E661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,10 +803,10 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6:W17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1267,12 +1267,12 @@
         <v>20</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -1367,8 +1367,8 @@
       <c r="V6">
         <v>94</v>
       </c>
-      <c r="W6" s="9" t="str">
-        <f>IF(V6&gt;=90,"10",IF(V6&gt;=80,"9",IF(V6&gt;=70,"8",IF(V6&gt;=60,"7",IF(V6&gt;=50,"6","")))))</f>
+      <c r="W6" s="8" t="str">
+        <f t="shared" ref="W6:W19" si="0">IF(V6&gt;=90,"10",IF(V6&gt;=80,"9",IF(V6&gt;=70,"8",IF(V6&gt;=60,"7",IF(V6&gt;=50,"6","5")))))</f>
         <v>10</v>
       </c>
     </row>
@@ -1418,8 +1418,8 @@
       <c r="V7">
         <v>92</v>
       </c>
-      <c r="W7" s="9" t="str">
-        <f t="shared" ref="W7:W19" si="0">IF(V7&gt;=90,"10",IF(V7&gt;=80,"9",IF(V7&gt;=70,"8",IF(V7&gt;=60,"7",IF(V7&gt;=50,"6","")))))</f>
+      <c r="W7" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       <c r="V8">
         <v>87</v>
       </c>
-      <c r="W8" s="9" t="str">
+      <c r="W8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="V9">
         <v>84</v>
       </c>
-      <c r="W9" s="9" t="str">
+      <c r="W9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="V10">
         <v>83</v>
       </c>
-      <c r="W10" s="9" t="str">
+      <c r="W10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="V11">
         <v>78</v>
       </c>
-      <c r="W11" s="9" t="str">
+      <c r="W11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="V12">
         <v>70</v>
       </c>
-      <c r="W12" s="9" t="str">
+      <c r="W12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="V13">
         <v>69</v>
       </c>
-      <c r="W13" s="9" t="str">
+      <c r="W13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="V14">
         <v>61</v>
       </c>
-      <c r="W14" s="9" t="str">
+      <c r="W14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="V15">
         <v>55</v>
       </c>
-      <c r="W15" s="9" t="str">
+      <c r="W15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="V16">
         <v>54</v>
       </c>
-      <c r="W16" s="9" t="str">
+      <c r="W16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1942,8 +1942,8 @@
       <c r="V17">
         <v>54</v>
       </c>
-      <c r="W17" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="W17" s="8" t="str">
+        <f>IF(V17&gt;=90,"10",IF(V17&gt;=80,"9",IF(V17&gt;=70,"8",IF(V17&gt;=60,"7",IF(V17&gt;=50,"6","5")))))</f>
         <v>6</v>
       </c>
     </row>
@@ -2005,9 +2005,9 @@
       <c r="V18">
         <v>42</v>
       </c>
-      <c r="W18" t="str">
+      <c r="W18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
@@ -2071,9 +2071,9 @@
       <c r="V19">
         <v>38</v>
       </c>
-      <c r="W19" t="str">
+      <c r="W19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
